--- a/Comments map DE.xlsx
+++ b/Comments map DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uibkacat-my.sharepoint.com/personal/silja_baumann_student_uibk_ac_at/Documents/1 Master/1 Masterarbeit/15 Minutes City/GIT/15-minutes-innsbruck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_AD4DB114E441178AC67DF4E22ED5D03A683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05EBF8F7-3A71-4489-B4B4-5B4765418494}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_AD4DB114E441178AC67DF4E22ED5D03A683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12A3799-0493-40E9-9297-CDE56BB9C7D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="9150" windowWidth="22080" windowHeight="5715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Stadtteil</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Mir ist nicht so sehr der Stadtteil wichtig, sondern die direkte Umgebung der Wohnung (Nähe zum Radlweg, Nähe zum Grünen, ruhige Lage, Sonneneinstrahlung). (90, Pos. 1)</t>
+  </si>
+  <si>
+    <t>Richtig in Mühlau, nicht unten an der Haller Straße. (618, Pos. 1)</t>
+  </si>
+  <si>
+    <t>Saggen (554, Pos. 1)</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1140,9 @@
       <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
@@ -1178,7 +1186,9 @@
       <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
         <v>46</v>
@@ -1514,8 +1524,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>